--- a/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_1.xlsx
+++ b/simulation_data/two_step_algorithm/2s_error_level_15_percent_water_1.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -452,10 +452,10 @@
         <v>90</v>
       </c>
       <c r="C2" t="n">
-        <v>92.96141675007657</v>
+        <v>93.42979806784913</v>
       </c>
       <c r="D2" t="n">
-        <v>18.61322436638545</v>
+        <v>18.03372484123125</v>
       </c>
     </row>
     <row r="3">
@@ -466,10 +466,10 @@
         <v>89</v>
       </c>
       <c r="C3" t="n">
-        <v>94.87835342746898</v>
+        <v>94.33004663271522</v>
       </c>
       <c r="D3" t="n">
-        <v>19.0916981444721</v>
+        <v>16.72842853090393</v>
       </c>
     </row>
     <row r="4">
@@ -480,10 +480,10 @@
         <v>88</v>
       </c>
       <c r="C4" t="n">
-        <v>92.98946605498746</v>
+        <v>91.11043250110002</v>
       </c>
       <c r="D4" t="n">
-        <v>18.31388006484881</v>
+        <v>16.28062441014843</v>
       </c>
     </row>
     <row r="5">
@@ -494,10 +494,10 @@
         <v>87</v>
       </c>
       <c r="C5" t="n">
-        <v>91.45121406202993</v>
+        <v>90.70545376655681</v>
       </c>
       <c r="D5" t="n">
-        <v>18.80805778342252</v>
+        <v>17.039949094894</v>
       </c>
     </row>
     <row r="6">
@@ -508,10 +508,10 @@
         <v>86</v>
       </c>
       <c r="C6" t="n">
-        <v>88.47602022854197</v>
+        <v>89.67382657940588</v>
       </c>
       <c r="D6" t="n">
-        <v>18.68573033066697</v>
+        <v>17.58723893058043</v>
       </c>
     </row>
     <row r="7">
@@ -522,10 +522,10 @@
         <v>85</v>
       </c>
       <c r="C7" t="n">
-        <v>87.17510489829746</v>
+        <v>87.38148955574432</v>
       </c>
       <c r="D7" t="n">
-        <v>17.0772966827641</v>
+        <v>18.09233950877346</v>
       </c>
     </row>
     <row r="8">
@@ -536,10 +536,10 @@
         <v>84</v>
       </c>
       <c r="C8" t="n">
-        <v>87.36233415128571</v>
+        <v>85.0366225401645</v>
       </c>
       <c r="D8" t="n">
-        <v>19.20711003924835</v>
+        <v>15.21526428436665</v>
       </c>
     </row>
     <row r="9">
@@ -550,10 +550,10 @@
         <v>83</v>
       </c>
       <c r="C9" t="n">
-        <v>87.90512059425728</v>
+        <v>86.5205062251615</v>
       </c>
       <c r="D9" t="n">
-        <v>18.57727539918364</v>
+        <v>15.24276778563965</v>
       </c>
     </row>
     <row r="10">
@@ -564,10 +564,10 @@
         <v>82</v>
       </c>
       <c r="C10" t="n">
-        <v>84.30666578706015</v>
+        <v>83.81263665580593</v>
       </c>
       <c r="D10" t="n">
-        <v>16.83387802079421</v>
+        <v>15.46033783191268</v>
       </c>
     </row>
     <row r="11">
@@ -578,10 +578,10 @@
         <v>81</v>
       </c>
       <c r="C11" t="n">
-        <v>85.33632659927287</v>
+        <v>80.75891883924105</v>
       </c>
       <c r="D11" t="n">
-        <v>17.5356167904717</v>
+        <v>18.02906657896067</v>
       </c>
     </row>
     <row r="12">
@@ -592,10 +592,10 @@
         <v>80</v>
       </c>
       <c r="C12" t="n">
-        <v>80.89978423184962</v>
+        <v>80.88151359435233</v>
       </c>
       <c r="D12" t="n">
-        <v>18.15266927627745</v>
+        <v>15.86238793587351</v>
       </c>
     </row>
     <row r="13">
@@ -606,10 +606,10 @@
         <v>79</v>
       </c>
       <c r="C13" t="n">
-        <v>81.93256733790278</v>
+        <v>83.02672134943586</v>
       </c>
       <c r="D13" t="n">
-        <v>14.99322108891067</v>
+        <v>18.26394082004261</v>
       </c>
     </row>
     <row r="14">
@@ -620,10 +620,10 @@
         <v>78</v>
       </c>
       <c r="C14" t="n">
-        <v>78.56304244019836</v>
+        <v>79.06699545828454</v>
       </c>
       <c r="D14" t="n">
-        <v>19.6348796847588</v>
+        <v>15.54551450579676</v>
       </c>
     </row>
     <row r="15">
@@ -634,10 +634,10 @@
         <v>77</v>
       </c>
       <c r="C15" t="n">
-        <v>78.29624148974688</v>
+        <v>81.2720055310126</v>
       </c>
       <c r="D15" t="n">
-        <v>18.42770061019424</v>
+        <v>17.5942794940356</v>
       </c>
     </row>
     <row r="16">
@@ -648,10 +648,10 @@
         <v>76</v>
       </c>
       <c r="C16" t="n">
-        <v>78.70963931098801</v>
+        <v>80.46987673920887</v>
       </c>
       <c r="D16" t="n">
-        <v>18.19104503829786</v>
+        <v>17.36951932643325</v>
       </c>
     </row>
     <row r="17">
@@ -662,10 +662,10 @@
         <v>75</v>
       </c>
       <c r="C17" t="n">
-        <v>78.64598790871257</v>
+        <v>76.9646803918004</v>
       </c>
       <c r="D17" t="n">
-        <v>16.74403731176923</v>
+        <v>16.29488955717968</v>
       </c>
     </row>
     <row r="18">
@@ -676,10 +676,10 @@
         <v>74</v>
       </c>
       <c r="C18" t="n">
-        <v>75.93624704017337</v>
+        <v>78.2806958197677</v>
       </c>
       <c r="D18" t="n">
-        <v>17.3875901138063</v>
+        <v>17.08952659805191</v>
       </c>
     </row>
     <row r="19">
@@ -690,10 +690,10 @@
         <v>73</v>
       </c>
       <c r="C19" t="n">
-        <v>75.31133076667449</v>
+        <v>71.04858095514165</v>
       </c>
       <c r="D19" t="n">
-        <v>18.86967268066409</v>
+        <v>17.67126914225122</v>
       </c>
     </row>
     <row r="20">
@@ -704,10 +704,10 @@
         <v>72</v>
       </c>
       <c r="C20" t="n">
-        <v>78.15046985686804</v>
+        <v>74.38966905810358</v>
       </c>
       <c r="D20" t="n">
-        <v>18.78917699419177</v>
+        <v>16.32203835269579</v>
       </c>
     </row>
     <row r="21">
@@ -718,10 +718,10 @@
         <v>71</v>
       </c>
       <c r="C21" t="n">
-        <v>74.19494303735867</v>
+        <v>75.08821524532718</v>
       </c>
       <c r="D21" t="n">
-        <v>20.05546237969564</v>
+        <v>16.25396441117973</v>
       </c>
     </row>
     <row r="22">
@@ -732,10 +732,10 @@
         <v>70</v>
       </c>
       <c r="C22" t="n">
-        <v>74.06649709994231</v>
+        <v>67.83084636779114</v>
       </c>
       <c r="D22" t="n">
-        <v>15.73066566409848</v>
+        <v>18.07838315418671</v>
       </c>
     </row>
     <row r="23">
@@ -746,10 +746,10 @@
         <v>69</v>
       </c>
       <c r="C23" t="n">
-        <v>69.67506319828276</v>
+        <v>71.10662522288811</v>
       </c>
       <c r="D23" t="n">
-        <v>15.79868622488863</v>
+        <v>15.79353800640419</v>
       </c>
     </row>
     <row r="24">
@@ -760,10 +760,10 @@
         <v>68</v>
       </c>
       <c r="C24" t="n">
-        <v>71.7087465910047</v>
+        <v>68.65339590455183</v>
       </c>
       <c r="D24" t="n">
-        <v>19.05664850047681</v>
+        <v>16.22973920140372</v>
       </c>
     </row>
     <row r="25">
@@ -774,10 +774,10 @@
         <v>67</v>
       </c>
       <c r="C25" t="n">
-        <v>69.07945559360651</v>
+        <v>64.97230453451567</v>
       </c>
       <c r="D25" t="n">
-        <v>18.47468974568364</v>
+        <v>17.00661972685711</v>
       </c>
     </row>
     <row r="26">
@@ -788,10 +788,10 @@
         <v>66</v>
       </c>
       <c r="C26" t="n">
-        <v>67.57239321256594</v>
+        <v>66.73446948269701</v>
       </c>
       <c r="D26" t="n">
-        <v>18.75902530175463</v>
+        <v>16.93475759415173</v>
       </c>
     </row>
     <row r="27">
@@ -802,10 +802,10 @@
         <v>65</v>
       </c>
       <c r="C27" t="n">
-        <v>63.55921003349667</v>
+        <v>66.32914814901247</v>
       </c>
       <c r="D27" t="n">
-        <v>19.15449128109682</v>
+        <v>16.76412124162479</v>
       </c>
     </row>
     <row r="28">
@@ -816,10 +816,10 @@
         <v>64</v>
       </c>
       <c r="C28" t="n">
-        <v>62.61448356693882</v>
+        <v>63.76018202239052</v>
       </c>
       <c r="D28" t="n">
-        <v>18.04642585745217</v>
+        <v>16.3210309781087</v>
       </c>
     </row>
     <row r="29">
@@ -830,10 +830,10 @@
         <v>63</v>
       </c>
       <c r="C29" t="n">
-        <v>64.24033548837933</v>
+        <v>63.89873241486153</v>
       </c>
       <c r="D29" t="n">
-        <v>16.44412577238581</v>
+        <v>15.87629914640897</v>
       </c>
     </row>
     <row r="30">
@@ -844,10 +844,10 @@
         <v>62</v>
       </c>
       <c r="C30" t="n">
-        <v>65.7519611536466</v>
+        <v>64.05790182509597</v>
       </c>
       <c r="D30" t="n">
-        <v>15.61206465721326</v>
+        <v>17.77227569318657</v>
       </c>
     </row>
     <row r="31">
@@ -858,10 +858,10 @@
         <v>61</v>
       </c>
       <c r="C31" t="n">
-        <v>63.26679278024986</v>
+        <v>62.58111405948946</v>
       </c>
       <c r="D31" t="n">
-        <v>17.47955585950972</v>
+        <v>16.91109989145356</v>
       </c>
     </row>
     <row r="32">
@@ -872,10 +872,10 @@
         <v>60</v>
       </c>
       <c r="C32" t="n">
-        <v>62.58102256679851</v>
+        <v>64.55682697553424</v>
       </c>
       <c r="D32" t="n">
-        <v>18.92495542918824</v>
+        <v>16.62987300412995</v>
       </c>
     </row>
     <row r="33">
@@ -886,10 +886,10 @@
         <v>59</v>
       </c>
       <c r="C33" t="n">
-        <v>59.34123766481827</v>
+        <v>60.60995406141157</v>
       </c>
       <c r="D33" t="n">
-        <v>18.37930498483101</v>
+        <v>14.9192824629283</v>
       </c>
     </row>
     <row r="34">
@@ -900,10 +900,10 @@
         <v>58</v>
       </c>
       <c r="C34" t="n">
-        <v>57.55428028210197</v>
+        <v>56.46940371614129</v>
       </c>
       <c r="D34" t="n">
-        <v>16.98417570138301</v>
+        <v>18.42033023652647</v>
       </c>
     </row>
     <row r="35">
@@ -914,10 +914,10 @@
         <v>57</v>
       </c>
       <c r="C35" t="n">
-        <v>59.67896271822627</v>
+        <v>59.29226117280243</v>
       </c>
       <c r="D35" t="n">
-        <v>18.41916344722634</v>
+        <v>15.04991514410919</v>
       </c>
     </row>
     <row r="36">
@@ -928,10 +928,10 @@
         <v>56</v>
       </c>
       <c r="C36" t="n">
-        <v>57.1972394054128</v>
+        <v>59.62864485686993</v>
       </c>
       <c r="D36" t="n">
-        <v>15.69936321839721</v>
+        <v>17.26089685988984</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         <v>55</v>
       </c>
       <c r="C37" t="n">
-        <v>56.22707309650181</v>
+        <v>56.27547057918651</v>
       </c>
       <c r="D37" t="n">
-        <v>18.19386048157213</v>
+        <v>16.48821024207988</v>
       </c>
     </row>
     <row r="38">
@@ -956,10 +956,10 @@
         <v>54</v>
       </c>
       <c r="C38" t="n">
-        <v>54.064677035171</v>
+        <v>56.06565890061961</v>
       </c>
       <c r="D38" t="n">
-        <v>16.83089155199361</v>
+        <v>19.57216681765678</v>
       </c>
     </row>
     <row r="39">
@@ -970,10 +970,10 @@
         <v>53</v>
       </c>
       <c r="C39" t="n">
-        <v>54.77124943856585</v>
+        <v>53.6941588254893</v>
       </c>
       <c r="D39" t="n">
-        <v>15.32756297711312</v>
+        <v>16.98874253448726</v>
       </c>
     </row>
     <row r="40">
@@ -984,10 +984,10 @@
         <v>52</v>
       </c>
       <c r="C40" t="n">
-        <v>51.05536338807691</v>
+        <v>53.56083509973097</v>
       </c>
       <c r="D40" t="n">
-        <v>17.44353120445426</v>
+        <v>15.41473511038764</v>
       </c>
     </row>
     <row r="41">
@@ -998,10 +998,10 @@
         <v>51</v>
       </c>
       <c r="C41" t="n">
-        <v>51.95196002997372</v>
+        <v>53.53966299510925</v>
       </c>
       <c r="D41" t="n">
-        <v>16.7415811011106</v>
+        <v>17.50522154172602</v>
       </c>
     </row>
     <row r="42">
@@ -1012,10 +1012,10 @@
         <v>50</v>
       </c>
       <c r="C42" t="n">
-        <v>46.44828570731047</v>
+        <v>52.565937687814</v>
       </c>
       <c r="D42" t="n">
-        <v>16.98749784137755</v>
+        <v>18.51507241155347</v>
       </c>
     </row>
     <row r="43">
@@ -1026,10 +1026,10 @@
         <v>49</v>
       </c>
       <c r="C43" t="n">
-        <v>50.49673958454946</v>
+        <v>50.58620216112812</v>
       </c>
       <c r="D43" t="n">
-        <v>19.56969614149354</v>
+        <v>16.89644827352645</v>
       </c>
     </row>
     <row r="44">
@@ -1040,10 +1040,10 @@
         <v>48</v>
       </c>
       <c r="C44" t="n">
-        <v>46.70014310773728</v>
+        <v>47.25805815181172</v>
       </c>
       <c r="D44" t="n">
-        <v>18.70112959410701</v>
+        <v>17.15393348463562</v>
       </c>
     </row>
     <row r="45">
@@ -1054,10 +1054,10 @@
         <v>47</v>
       </c>
       <c r="C45" t="n">
-        <v>51.33947926300647</v>
+        <v>49.61938873267965</v>
       </c>
       <c r="D45" t="n">
-        <v>16.17110241329118</v>
+        <v>16.44944262580975</v>
       </c>
     </row>
     <row r="46">
@@ -1068,10 +1068,10 @@
         <v>46</v>
       </c>
       <c r="C46" t="n">
-        <v>46.72079958046319</v>
+        <v>47.73282266652589</v>
       </c>
       <c r="D46" t="n">
-        <v>17.52699673584608</v>
+        <v>15.08880559219173</v>
       </c>
     </row>
     <row r="47">
@@ -1082,10 +1082,10 @@
         <v>45</v>
       </c>
       <c r="C47" t="n">
-        <v>45.40951393940555</v>
+        <v>46.94653228896981</v>
       </c>
       <c r="D47" t="n">
-        <v>17.1662203997338</v>
+        <v>16.49500436696129</v>
       </c>
     </row>
     <row r="48">
@@ -1096,10 +1096,10 @@
         <v>44</v>
       </c>
       <c r="C48" t="n">
-        <v>42.41127273798374</v>
+        <v>45.33699723841402</v>
       </c>
       <c r="D48" t="n">
-        <v>16.15728760586963</v>
+        <v>16.07867537898255</v>
       </c>
     </row>
     <row r="49">
@@ -1110,10 +1110,10 @@
         <v>43</v>
       </c>
       <c r="C49" t="n">
-        <v>43.24030754607766</v>
+        <v>43.71885241836769</v>
       </c>
       <c r="D49" t="n">
-        <v>17.36831003288459</v>
+        <v>17.01047924811574</v>
       </c>
     </row>
     <row r="50">
@@ -1124,10 +1124,10 @@
         <v>42</v>
       </c>
       <c r="C50" t="n">
-        <v>42.29153610069264</v>
+        <v>40.44494124426333</v>
       </c>
       <c r="D50" t="n">
-        <v>17.11193725265849</v>
+        <v>17.76592850295934</v>
       </c>
     </row>
     <row r="51">
@@ -1138,10 +1138,10 @@
         <v>41</v>
       </c>
       <c r="C51" t="n">
-        <v>42.55948099107272</v>
+        <v>38.55669935281623</v>
       </c>
       <c r="D51" t="n">
-        <v>16.39735069543074</v>
+        <v>16.07956346621856</v>
       </c>
     </row>
     <row r="52">
@@ -1152,10 +1152,10 @@
         <v>40</v>
       </c>
       <c r="C52" t="n">
-        <v>40.27587826670274</v>
+        <v>38.87318483035007</v>
       </c>
       <c r="D52" t="n">
-        <v>18.11878928923459</v>
+        <v>16.36093044514072</v>
       </c>
     </row>
     <row r="53">
@@ -1166,10 +1166,10 @@
         <v>39</v>
       </c>
       <c r="C53" t="n">
-        <v>37.80982496673625</v>
+        <v>37.62146487984676</v>
       </c>
       <c r="D53" t="n">
-        <v>20.21009961991803</v>
+        <v>16.69654166489732</v>
       </c>
     </row>
     <row r="54">
@@ -1180,10 +1180,10 @@
         <v>38</v>
       </c>
       <c r="C54" t="n">
-        <v>36.92467481695052</v>
+        <v>38.39030583339716</v>
       </c>
       <c r="D54" t="n">
-        <v>17.0426032073263</v>
+        <v>15.60600782087984</v>
       </c>
     </row>
     <row r="55">
@@ -1194,10 +1194,10 @@
         <v>37</v>
       </c>
       <c r="C55" t="n">
-        <v>37.033993863109</v>
+        <v>37.14844368521353</v>
       </c>
       <c r="D55" t="n">
-        <v>17.16956935270759</v>
+        <v>17.82832236226637</v>
       </c>
     </row>
     <row r="56">
@@ -1208,10 +1208,10 @@
         <v>36</v>
       </c>
       <c r="C56" t="n">
-        <v>36.45671113612409</v>
+        <v>36.29046076794387</v>
       </c>
       <c r="D56" t="n">
-        <v>19.13509812825093</v>
+        <v>17.37346863131105</v>
       </c>
     </row>
     <row r="57">
@@ -1222,10 +1222,10 @@
         <v>35</v>
       </c>
       <c r="C57" t="n">
-        <v>36.25016839097002</v>
+        <v>36.21781952045783</v>
       </c>
       <c r="D57" t="n">
-        <v>18.70699621441987</v>
+        <v>15.64073410266067</v>
       </c>
     </row>
     <row r="58">
@@ -1236,10 +1236,10 @@
         <v>34</v>
       </c>
       <c r="C58" t="n">
-        <v>35.73638147737356</v>
+        <v>31.8323208471848</v>
       </c>
       <c r="D58" t="n">
-        <v>17.58357851164541</v>
+        <v>17.8497075675415</v>
       </c>
     </row>
     <row r="59">
@@ -1250,10 +1250,10 @@
         <v>33</v>
       </c>
       <c r="C59" t="n">
-        <v>31.15102773359262</v>
+        <v>35.34740245416565</v>
       </c>
       <c r="D59" t="n">
-        <v>19.13194683489838</v>
+        <v>18.80667050415702</v>
       </c>
     </row>
     <row r="60">
@@ -1264,10 +1264,10 @@
         <v>32</v>
       </c>
       <c r="C60" t="n">
-        <v>30.56568565994571</v>
+        <v>31.88165764779055</v>
       </c>
       <c r="D60" t="n">
-        <v>16.43485690996576</v>
+        <v>17.44151731660254</v>
       </c>
     </row>
     <row r="61">
@@ -1278,10 +1278,10 @@
         <v>31</v>
       </c>
       <c r="C61" t="n">
-        <v>30.62639933004154</v>
+        <v>32.23282753800049</v>
       </c>
       <c r="D61" t="n">
-        <v>16.79443554745566</v>
+        <v>17.11207102954575</v>
       </c>
     </row>
     <row r="62">
@@ -1292,10 +1292,10 @@
         <v>30</v>
       </c>
       <c r="C62" t="n">
-        <v>31.64224752711238</v>
+        <v>30.17112199357211</v>
       </c>
       <c r="D62" t="n">
-        <v>19.0039161091265</v>
+        <v>16.89395249469818</v>
       </c>
     </row>
     <row r="63">
@@ -1306,10 +1306,10 @@
         <v>29</v>
       </c>
       <c r="C63" t="n">
-        <v>29.90814534789568</v>
+        <v>28.31490048020998</v>
       </c>
       <c r="D63" t="n">
-        <v>17.11510738086099</v>
+        <v>15.12965528979064</v>
       </c>
     </row>
     <row r="64">
@@ -1320,10 +1320,10 @@
         <v>28</v>
       </c>
       <c r="C64" t="n">
-        <v>29.3620822015569</v>
+        <v>29.00836273727827</v>
       </c>
       <c r="D64" t="n">
-        <v>15.93444332885802</v>
+        <v>16.17223345944581</v>
       </c>
     </row>
     <row r="65">
@@ -1334,10 +1334,10 @@
         <v>27</v>
       </c>
       <c r="C65" t="n">
-        <v>25.40493499386658</v>
+        <v>24.68782257491819</v>
       </c>
       <c r="D65" t="n">
-        <v>18.95139958742603</v>
+        <v>15.75207348782046</v>
       </c>
     </row>
     <row r="66">
@@ -1348,10 +1348,10 @@
         <v>26</v>
       </c>
       <c r="C66" t="n">
-        <v>29.61446643825523</v>
+        <v>23.39891918125499</v>
       </c>
       <c r="D66" t="n">
-        <v>17.49010824325586</v>
+        <v>16.84530415073311</v>
       </c>
     </row>
     <row r="67">
@@ -1362,10 +1362,10 @@
         <v>25</v>
       </c>
       <c r="C67" t="n">
-        <v>27.19819596444744</v>
+        <v>22.49490325802923</v>
       </c>
       <c r="D67" t="n">
-        <v>17.91961890237116</v>
+        <v>15.71246667453294</v>
       </c>
     </row>
     <row r="68">
@@ -1376,10 +1376,10 @@
         <v>24</v>
       </c>
       <c r="C68" t="n">
-        <v>26.65045572719774</v>
+        <v>23.1389926125989</v>
       </c>
       <c r="D68" t="n">
-        <v>17.37885165465163</v>
+        <v>17.90637087193808</v>
       </c>
     </row>
     <row r="69">
@@ -1390,10 +1390,10 @@
         <v>23</v>
       </c>
       <c r="C69" t="n">
-        <v>22.42135519883769</v>
+        <v>23.95144646150151</v>
       </c>
       <c r="D69" t="n">
-        <v>14.08589087552431</v>
+        <v>16.2845067500776</v>
       </c>
     </row>
   </sheetData>
